--- a/LinuxCMD.xlsx
+++ b/LinuxCMD.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>安装C语言</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,10 +253,6 @@
     <t>pip config set global.index-url https://pypi.tuna.tsinghua.edu.cn/simple</t>
   </si>
   <si>
-    <t>ll /usr/bin | grep 调用名称 (grep 匹配)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>软链(快捷方式</t>
     </r>
@@ -359,6 +355,14 @@
   </si>
   <si>
     <t>sudo mkdir path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grep 匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"--prefix" 安装路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -738,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -758,7 +762,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -781,7 +785,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -791,21 +795,21 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -814,13 +818,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -914,7 +918,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>46</v>
@@ -923,7 +927,7 @@
         <v>47</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -944,24 +948,24 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="D24" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="B25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="D25" s="2"/>
     </row>
@@ -972,27 +976,29 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="C27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
       <c r="B29" s="2"/>
